--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,105 +49,117 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>ripped</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
@@ -157,58 +169,58 @@
     <t>money</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>expected</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>like</t>
@@ -217,15 +229,12 @@
     <t>little</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -235,12 +244,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -280,10 +289,13 @@
     <t>christmas</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -647,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -758,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -766,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7954545454545454</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.765625</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -858,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>0.7419354838709677</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L6">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>0.5660377358490566</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -958,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7473118279569892</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C8">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -984,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>0.484375</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7183098591549296</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K9">
         <v>0.4057971014492754</v>
@@ -1066,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7135922330097088</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10">
-        <v>0.3418032786885246</v>
+        <v>0.3352459016393443</v>
       </c>
       <c r="L10">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M10">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6551724137931034</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.2797704447632712</v>
+        <v>0.3113342898134864</v>
       </c>
       <c r="L11">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M11">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6351351351351351</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>0.2365145228215768</v>
+        <v>0.2551867219917012</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5966386554621849</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K13">
-        <v>0.225</v>
+        <v>0.2</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,37 +1278,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5789473684210527</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>22</v>
       </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14">
-        <v>0.2108433734939759</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5476190476190477</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K15">
-        <v>0.1834862385321101</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16">
+        <v>0.1164021164021164</v>
+      </c>
+      <c r="L16">
         <v>22</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16">
-        <v>0.1375661375661376</v>
-      </c>
-      <c r="L16">
-        <v>26</v>
-      </c>
       <c r="M16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5111111111111111</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17">
+        <v>0.08835341365461848</v>
+      </c>
+      <c r="L17">
         <v>22</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
       <c r="M17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4909090909090909</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K18">
-        <v>0.08064516129032258</v>
+        <v>0.08501314636283962</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>171</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4666666666666667</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C19">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D19">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K19">
-        <v>0.0736196319018405</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L19">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1057</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4571428571428571</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,31 +1596,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K20">
-        <v>0.02792207792207792</v>
+        <v>0.05013927576601671</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1497</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4444444444444444</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,7 +1646,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21">
+        <v>0.02790395846852693</v>
+      </c>
+      <c r="L21">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1498</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4444444444444444</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1660,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,13 +1704,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4337349397590362</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1686,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1694,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4105263157894737</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1712,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1720,13 +1756,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4015748031496063</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1738,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1746,13 +1782,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3465346534653465</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1764,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1772,13 +1808,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3333333333333333</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1790,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1798,13 +1834,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3258426966292135</v>
+        <v>0.375</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1816,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1824,13 +1860,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3125</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1842,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1850,13 +1886,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2843601895734597</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1868,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>151</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1876,13 +1912,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.265625</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1894,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1902,13 +1938,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2622950819672131</v>
+        <v>0.3203125</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1920,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1928,13 +1964,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2586206896551724</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1946,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1954,7 +1990,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.25</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -1972,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1980,13 +2016,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2448979591836735</v>
+        <v>0.2938388625592417</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1998,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2006,13 +2042,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2268041237113402</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2024,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>150</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2032,13 +2068,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2173913043478261</v>
+        <v>0.2920792079207921</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2050,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2058,13 +2094,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1965811965811966</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2076,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2084,13 +2120,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.185459940652819</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C39">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2102,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>549</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2110,13 +2146,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.177536231884058</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2128,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>227</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2136,13 +2172,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1772151898734177</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C41">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2154,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>260</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2162,13 +2198,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1759259259259259</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2180,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2188,13 +2224,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1648351648351648</v>
+        <v>0.1899109792284867</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2206,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>76</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2214,13 +2250,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1550632911392405</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C44">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2232,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2240,13 +2276,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1528662420382166</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2258,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>133</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2266,13 +2302,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1428571428571428</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2284,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>150</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2292,13 +2328,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.14</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2310,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>172</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2318,13 +2354,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1379310344827586</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D48">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2336,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>300</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2344,25 +2380,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1355932203389831</v>
+        <v>0.138328530259366</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>102</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2370,13 +2406,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1308411214953271</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2388,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>186</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2396,13 +2432,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1277533039647577</v>
+        <v>0.12</v>
       </c>
       <c r="C51">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2414,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>396</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2422,13 +2458,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1214285714285714</v>
+        <v>0.12</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2440,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2448,13 +2484,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09363295880149813</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2466,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>242</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2474,13 +2510,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.09289617486338798</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2492,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2500,25 +2536,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09042553191489362</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E55">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2526,13 +2562,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08854166666666667</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2544,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>175</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2552,25 +2588,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.08493150684931507</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>334</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2604,13 +2640,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07661290322580645</v>
+        <v>0.08239700374531835</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2622,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2630,25 +2666,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.06589785831960461</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F60">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>567</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2656,13 +2692,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05790645879732739</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2674,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>423</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2682,13 +2718,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.05714285714285714</v>
+        <v>0.06478873239436619</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2700,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>264</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2708,25 +2744,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05352112676056338</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="C63">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D63">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>336</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2734,25 +2770,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05336426914153132</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E64">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>408</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2760,25 +2796,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03062787136294028</v>
+        <v>0.05790645879732739</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D65">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>633</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2786,25 +2822,103 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03034134007585335</v>
+        <v>0.05379746835443038</v>
       </c>
       <c r="C66">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>0.06</v>
+      </c>
+      <c r="F66">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.0290519877675841</v>
+      </c>
+      <c r="C68">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>0.05</v>
+      </c>
+      <c r="F68">
+        <v>0.95</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.02408111533586819</v>
+      </c>
+      <c r="C69">
+        <v>19</v>
+      </c>
+      <c r="D69">
         <v>24</v>
       </c>
-      <c r="D66">
-        <v>27</v>
-      </c>
-      <c r="E66">
-        <v>0.11</v>
-      </c>
-      <c r="F66">
-        <v>0.89</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>767</v>
+      <c r="E69">
+        <v>0.21</v>
+      </c>
+      <c r="F69">
+        <v>0.79</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
